--- a/data/input/absenteeism_data_33.xlsx
+++ b/data/input/absenteeism_data_33.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67265</v>
+        <v>1597</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Costa</t>
+          <t>Benjamin Sales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45097</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>10768.5</v>
+        <v>6890.11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20349</v>
+        <v>92439</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Cardoso</t>
+          <t>Vitor Hugo Lopes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,143 +523,143 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>4016.98</v>
+        <v>6867.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34507</v>
+        <v>23149</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Emanuella Farias</t>
+          <t>Isadora Freitas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45097</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>2895.75</v>
+        <v>12157.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96126</v>
+        <v>72552</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Helena Costa</t>
+          <t>Lavínia Almeida</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>8644.959999999999</v>
+        <v>2869.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97341</v>
+        <v>80472</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isadora da Mota</t>
+          <t>Dr. Lucas Gabriel Sales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>11688.6</v>
+        <v>9797.790000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>41704</v>
+        <v>57677</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Bryan Moraes</t>
+          <t>Maria Luiza da Conceição</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>10143.32</v>
+        <v>9632.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>69830</v>
+        <v>3416</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gabriel Cunha</t>
+          <t>Dra. Ana Luiza Monteiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,56 +668,56 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45106</v>
+        <v>45098</v>
       </c>
       <c r="G8" t="n">
-        <v>7745.31</v>
+        <v>8688.629999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12164</v>
+        <v>39979</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Samuel Barros</t>
+          <t>Alana Pires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45097</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>8451.33</v>
+        <v>6912.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>46768</v>
+        <v>89735</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Emanuelly Cardoso</t>
+          <t>Gabriela Souza</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45086</v>
+        <v>45101</v>
       </c>
       <c r="G10" t="n">
-        <v>8845.15</v>
+        <v>5281.64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14750</v>
+        <v>39492</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rebeca Cardoso</t>
+          <t>Marcela Melo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45092</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>3284.82</v>
+        <v>8772.889999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_33.xlsx
+++ b/data/input/absenteeism_data_33.xlsx
@@ -476,277 +476,277 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1597</v>
+        <v>89668</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Benjamin Sales</t>
+          <t>Alice da Cunha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45099</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>6890.11</v>
+        <v>5118.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>92439</v>
+        <v>38876</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vitor Hugo Lopes</t>
+          <t>Samuel Porto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>6867.66</v>
+        <v>6696.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23149</v>
+        <v>91380</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isadora Freitas</t>
+          <t>Sra. Ana Clara Costela</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>12157.35</v>
+        <v>5429.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>72552</v>
+        <v>71062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lavínia Almeida</t>
+          <t>Diogo Nunes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45095</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>2869.43</v>
+        <v>10813.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80472</v>
+        <v>57991</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Lucas Gabriel Sales</t>
+          <t>Augusto da Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>9797.790000000001</v>
+        <v>8661.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>57677</v>
+        <v>91064</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Luiza da Conceição</t>
+          <t>Luana da Mata</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="G7" t="n">
-        <v>9632.76</v>
+        <v>7389.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3416</v>
+        <v>4197</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dra. Ana Luiza Monteiro</t>
+          <t>Sra. Stella Monteiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>8688.629999999999</v>
+        <v>7813.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39979</v>
+        <v>38131</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alana Pires</t>
+          <t>Luiz Henrique Correia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45101</v>
+        <v>45085</v>
       </c>
       <c r="G9" t="n">
-        <v>6912.3</v>
+        <v>3632.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>89735</v>
+        <v>50052</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gabriela Souza</t>
+          <t>Sra. Ana Julia Cardoso</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45101</v>
+        <v>45087</v>
       </c>
       <c r="G10" t="n">
-        <v>5281.64</v>
+        <v>5334.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39492</v>
+        <v>36114</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marcela Melo</t>
+          <t>Diogo Almeida</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>8772.889999999999</v>
+        <v>11017.43</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_33.xlsx
+++ b/data/input/absenteeism_data_33.xlsx
@@ -476,132 +476,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89668</v>
+        <v>26840</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice da Cunha</t>
+          <t>Srta. Gabrielly Rezende</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>5118.18</v>
+        <v>9815.290000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38876</v>
+        <v>84868</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samuel Porto</t>
+          <t>Caio Barbosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45094</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>6696.52</v>
+        <v>2766.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91380</v>
+        <v>30637</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sra. Ana Clara Costela</t>
+          <t>Dra. Bárbara Dias</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45088</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>5429.68</v>
+        <v>9444.469999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>71062</v>
+        <v>18765</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diogo Nunes</t>
+          <t>Isabel Almeida</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>10813.33</v>
+        <v>12413.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>57991</v>
+        <v>26522</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Augusto da Rocha</t>
+          <t>Renan da Paz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,109 +610,109 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>8661.82</v>
+        <v>3277.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91064</v>
+        <v>74127</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luana da Mata</t>
+          <t>Enzo Gabriel Ribeiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45086</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>7389.34</v>
+        <v>5890.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4197</v>
+        <v>16171</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sra. Stella Monteiro</t>
+          <t>Dra. Lavínia Almeida</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>7813.02</v>
+        <v>6801.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>38131</v>
+        <v>57023</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luiz Henrique Correia</t>
+          <t>Giovanna Barros</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45085</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>3632.76</v>
+        <v>10416.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50052</v>
+        <v>38030</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Ana Julia Cardoso</t>
+          <t>Marina Moura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45087</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>5334.9</v>
+        <v>11764.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36114</v>
+        <v>70725</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Diogo Almeida</t>
+          <t>Daniela Duarte</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>11017.43</v>
+        <v>3746.28</v>
       </c>
     </row>
   </sheetData>
